--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A8B61-362C-4FF8-B7A3-FD88A13D7FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF8D5C-D383-4A5F-8912-4DEF83D05C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="11" activeTab="16" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="12" activeTab="16" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Data관리 및 시각화" sheetId="29" r:id="rId15"/>
     <sheet name="데이터시각화 lib" sheetId="30" r:id="rId16"/>
     <sheet name="데이터분석" sheetId="31" r:id="rId17"/>
+    <sheet name="크롤링" sheetId="32" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="2698">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8015,10 +8016,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원하는 행에 접근</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터프레임[조건]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9527,6 +9524,137 @@
   </si>
   <si>
     <t>"[가-힣]{2,}" : 두글자 이상으로만 이루어진 글자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 크롤링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷에 있는 데이터를 가져오는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷은 HTML이라는 언어로 구성, Python으로 HTML을 다루어야 하며 페이지 요청 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests : 페이지 요청 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas : 수집한 데이터 엑셀화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 요청 후 문제가 없을 경우 서버에서 전송해줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs4의 BeautifulSoup라는 클래스 : Python으로 HTML을 다루는 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while True:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 이걸로하면 무한으로 요청되어서 트래픽 공격이 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># IP 차단 당할 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time : 안전하게 수집하는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeautifulSoup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># HTML처럼 생긴거지 HTML은 아님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find(태그,속성)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 HTML을 찾아서 HTML로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 HTML을 모두 찾아서 리스트로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests.get('링크') : 페이지 요청, 문자열로 되어있는 HTML로 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹상에서 클래스를 확인하려면 우클릭하고 검사버튼 누르기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>div : 태그명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_number : 클래스명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>span : 태그명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotto=html.find('div',class_='winning_number').find_all('span')</t>
+  </si>
+  <si>
+    <t>인터넷에 있는 Table(표)를 데이터프레임으로 만드는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read.html(str(HTML))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeautifulSoup(링크.text) : 수집한 url 데이터를 HTML로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열이름].notnull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[열이름].isnull()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 행에 접근(원하는 열들의 데이터값에 접근)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리즈는 데이터프레임의 하위 자료형으로 1개의 열이 시리즈이고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 시리즈가 다수 모여 데이터프레임을 형성한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># time.sleep(숫자) : 입력한 숫자만큼 쉼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9896,11 +10024,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11210,6 +11338,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>103957</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135D5B13-52D5-9FA5-9176-FF8CB587AF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="2314575"/>
+          <a:ext cx="6542857" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F038E-A22B-3539-EA69-E62C70DABEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="5191125"/>
+          <a:ext cx="3400000" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>37714</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFE80C5-D383-90CF-9B2D-8CED8918D468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6581775"/>
+          <a:ext cx="3085714" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -11509,8 +11774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98375F85-5B20-47A5-99CD-232AA4BC3C85}">
   <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:F49"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14003,8 +14268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14823,8 +15088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
   <dimension ref="A1:BD481"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="AK433" sqref="AK433"/>
+    <sheetView topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="AU330" sqref="AU330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15939,7 +16204,7 @@
         <v>2140</v>
       </c>
       <c r="L216" s="24" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="217" spans="3:38" x14ac:dyDescent="0.25">
@@ -15947,7 +16212,7 @@
         <v>2141</v>
       </c>
       <c r="L217" s="24" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="Z217" s="24" t="s">
         <v>291</v>
@@ -15955,10 +16220,10 @@
     </row>
     <row r="218" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C218" s="23" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AL218" s="24" t="s">
         <v>2525</v>
-      </c>
-      <c r="AL218" s="24" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="219" spans="3:38" x14ac:dyDescent="0.25">
@@ -15968,7 +16233,7 @@
     </row>
     <row r="222" spans="3:38" x14ac:dyDescent="0.25">
       <c r="AL222" s="24" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="229" spans="2:23" x14ac:dyDescent="0.25">
@@ -16161,32 +16426,32 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="274" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B274" s="24" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="275" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C275" s="24" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="276" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C276" s="24" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="277" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C277" s="24" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="279" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C279" s="24" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="280" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C280" s="24" t="s">
         <v>2193</v>
       </c>
@@ -16194,7 +16459,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="281" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C281" s="24" t="s">
         <v>2196</v>
       </c>
@@ -16202,22 +16467,28 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="283" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B283" s="24" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="284" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C284" s="24" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="285" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AK284" s="24" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="285" spans="2:37" x14ac:dyDescent="0.25">
       <c r="U285" s="24" t="s">
         <v>2227</v>
       </c>
-    </row>
-    <row r="286" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AK285" s="24" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="286" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D286" s="23" t="s">
         <v>2204</v>
       </c>
@@ -16225,7 +16496,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="287" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D287" s="23" t="s">
         <v>2205</v>
       </c>
@@ -16625,7 +16896,7 @@
         <v>2250</v>
       </c>
       <c r="X378" s="24" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="379" spans="2:29" x14ac:dyDescent="0.25">
@@ -16721,7 +16992,7 @@
         <v>2268</v>
       </c>
       <c r="AK401" s="24" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="402" spans="3:47" x14ac:dyDescent="0.25">
@@ -16734,7 +17005,7 @@
     </row>
     <row r="403" spans="3:47" x14ac:dyDescent="0.25">
       <c r="AK403" s="24" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="404" spans="3:47" x14ac:dyDescent="0.25">
@@ -16752,10 +17023,10 @@
         <v>2272</v>
       </c>
       <c r="AB406" s="24" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="AU406" s="24" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="407" spans="3:47" x14ac:dyDescent="0.25">
@@ -16763,10 +17034,10 @@
         <v>2273</v>
       </c>
       <c r="AC407" s="22" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="AU407" s="24" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="408" spans="3:47" x14ac:dyDescent="0.25">
@@ -16776,7 +17047,7 @@
     </row>
     <row r="409" spans="3:47" x14ac:dyDescent="0.25">
       <c r="AL409" s="24" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="410" spans="3:47" x14ac:dyDescent="0.25">
@@ -16801,219 +17072,219 @@
     </row>
     <row r="416" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C416" s="24" t="s">
-        <v>2279</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="418" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D418" s="24" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="419" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D419" s="24" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="420" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D420" s="24" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="422" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C422" s="24" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="423" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D423" s="24" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="425" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D425" s="24" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="426" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D426" s="24" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="427" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D427" s="24" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="428" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D428" s="24" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="430" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C430" s="24" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="432" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D432" s="24" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="434" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C434" s="24" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="O434" s="24" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="436" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D436" s="24" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="P436" s="24" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="438" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C438" s="24" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="440" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D440" s="24" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L440" s="24" t="s">
         <v>2294</v>
-      </c>
-      <c r="L440" s="24" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="442" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C442" s="24" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="444" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D444" s="24" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L444" s="24" t="s">
         <v>2297</v>
-      </c>
-      <c r="L444" s="24" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="446" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C446" s="24" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="448" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D448" s="24" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="449" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D449" s="24" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="450" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D450" s="24" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="451" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D451" s="24" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="452" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D452" s="24" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="453" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D453" s="24" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="455" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C455" s="24" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="457" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D457" s="24" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="458" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D458" s="24" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="460" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C460" s="24" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="462" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D462" s="24" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="464" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C464" s="24" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="466" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D466" s="24" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="468" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C468" s="24" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="470" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D470" s="24" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="471" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D471" s="24" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="472" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D472" s="24" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="473" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D473" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="475" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C475" s="24" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="477" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D477" s="24" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="479" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C479" s="24" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="24" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
   </sheetData>
@@ -17028,8 +17299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78969601-CFDF-4FEB-ADE1-B8CB4AE1E69F}">
   <dimension ref="A1:AJ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AB89" sqref="AB89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17039,216 +17310,216 @@
   <sheetData>
     <row r="1" spans="1:27" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Z4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="AA5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="Z6" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="AA7" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
@@ -17258,49 +17529,49 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C57" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="P57" t="s">
         <v>291</v>
       </c>
       <c r="Q57" s="23" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C60" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="L60" t="s">
         <v>291</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C62" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C63" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C64" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="23" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D66" t="s">
         <v>291</v>
@@ -17332,38 +17603,38 @@
     </row>
     <row r="81" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="82" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="I82" t="s">
         <v>291</v>
       </c>
       <c r="J82" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="83" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="84" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="86" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="87" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="AJ87" t="s">
         <v>293</v>
@@ -17371,22 +17642,22 @@
     </row>
     <row r="88" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="89" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="91" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="92" spans="3:36" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
   </sheetData>
@@ -17400,8 +17671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07853553-304D-4C3C-AC6C-4A6E8227C9AD}">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="X166" sqref="X166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17412,635 +17683,635 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="24" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="24" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="24" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="22" t="s">
+        <v>2383</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>2384</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="22" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="24" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K14" s="24" t="s">
         <v>2387</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="24" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="24" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="24" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" s="22" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C30" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C31" s="22" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" s="22" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C38" s="22" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>2402</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>2403</v>
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42" s="22" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="22" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C46" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C47" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49" s="22" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50" s="22" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="55" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C55" s="22" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="58" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C58" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="60" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C60" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="61" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C61" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="62" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C62" s="22" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="63" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C63" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="64" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C64" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C65" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C68" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C69" s="22" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C70" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C71" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C72" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C74" s="22" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C76" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C77" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="S77" s="22" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C78" s="22" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C79" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C80" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="22" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="22" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="41" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="41" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="22" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="22" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B99" s="24" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C101" s="24" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C103" s="24" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C105" s="24" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D106" s="24" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="R106" s="24" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C108" s="24" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D109" s="24" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="L109" s="24" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D110" s="24" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C112" s="24" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="113" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D113" s="24" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="115" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C115" s="24" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="116" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D116" s="24" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="W116" s="24" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="118" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C118" s="24" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="119" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D119" s="24" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="W119" s="24" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="121" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C121" s="24" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="122" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D122" s="24" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="W122" s="24" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="124" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C124" s="24" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="125" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D125" s="24" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="W125" s="24" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="127" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C127" s="24" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="128" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D128" s="24" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="X128" s="24" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C130" s="24" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D131" s="24" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="24" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C135" s="24" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="24" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C138" s="24" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C139" s="24" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C141" s="24" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D142" s="24" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="24" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C145" s="24" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B148" s="24" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B150" s="24" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B152" s="24" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C155" s="24" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B157" s="24" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C158" s="24" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C159" s="24" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C160" s="24" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="24" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="24" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="24" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
   </sheetData>
@@ -18053,8 +18324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A83CB-0B2E-48F4-BF71-630048669345}">
   <dimension ref="A1:BQ210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="BA183" sqref="BA183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN11:AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18065,25 +18336,25 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="46" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="46"/>
       <c r="C4" s="24" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -18094,41 +18365,41 @@
       <c r="A6" s="24"/>
       <c r="B6" s="46"/>
       <c r="C6" s="24" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="T6" s="48" t="s">
+        <v>2479</v>
+      </c>
+      <c r="U6" s="48" t="s">
         <v>2480</v>
       </c>
-      <c r="U6" s="48" t="s">
-        <v>2481</v>
-      </c>
       <c r="W6" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="X6" s="48" t="s">
+        <v>2479</v>
+      </c>
+      <c r="Y6" s="48" t="s">
         <v>2480</v>
       </c>
-      <c r="Y6" s="48" t="s">
-        <v>2481</v>
-      </c>
       <c r="AA6" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="AB6" s="48" t="s">
+        <v>2479</v>
+      </c>
+      <c r="AC6" s="48" t="s">
         <v>2480</v>
-      </c>
-      <c r="AC6" s="48" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="46"/>
       <c r="D7" s="24" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="S7" s="48" t="s">
         <v>936</v>
@@ -18140,7 +18411,7 @@
         <v>364</v>
       </c>
       <c r="V7" s="24" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="W7" s="48" t="s">
         <v>1145</v>
@@ -18149,7 +18420,7 @@
         <v>1911</v>
       </c>
       <c r="Y7" s="48" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="Z7" s="24" t="s">
         <v>291</v>
@@ -18167,7 +18438,7 @@
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="46"/>
       <c r="S8" s="48" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="T8" s="48" t="s">
         <v>1135</v>
@@ -18176,16 +18447,16 @@
         <v>1926</v>
       </c>
       <c r="W8" s="48" t="s">
+        <v>2484</v>
+      </c>
+      <c r="X8" s="48" t="s">
         <v>2485</v>
       </c>
-      <c r="X8" s="48" t="s">
-        <v>2486</v>
-      </c>
       <c r="Y8" s="48" t="s">
+        <v>2481</v>
+      </c>
+      <c r="AA8" s="48" t="s">
         <v>2482</v>
-      </c>
-      <c r="AA8" s="48" t="s">
-        <v>2483</v>
       </c>
       <c r="AB8" s="48" t="s">
         <v>1135</v>
@@ -18197,7 +18468,7 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
       <c r="E9" s="24" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="AA9" s="48" t="s">
         <v>1145</v>
@@ -18206,22 +18477,22 @@
         <v>1911</v>
       </c>
       <c r="AC9" s="48" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="E10" s="24" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="AA10" s="48" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AB10" s="48" t="s">
         <v>2485</v>
       </c>
-      <c r="AB10" s="48" t="s">
-        <v>2486</v>
-      </c>
       <c r="AC10" s="48" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -18230,40 +18501,40 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="46"/>
       <c r="C12" s="24" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="S12" s="48"/>
       <c r="T12" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="U12" s="48" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="W12" s="48"/>
       <c r="X12" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="Y12" s="48" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="AA12" s="48"/>
       <c r="AB12" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="AC12" s="48" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="AD12" s="48" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="AE12" s="48" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="46"/>
       <c r="D13" s="24" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="S13" s="48" t="s">
         <v>936</v>
@@ -18275,7 +18546,7 @@
         <v>364</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="W13" s="48" t="s">
         <v>936</v>
@@ -18284,7 +18555,7 @@
         <v>1911</v>
       </c>
       <c r="Y13" s="48" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="Z13" s="24" t="s">
         <v>291</v>
@@ -18302,7 +18573,7 @@
         <v>1911</v>
       </c>
       <c r="AE13" s="48" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -18320,10 +18591,10 @@
         <v>1140</v>
       </c>
       <c r="X14" s="48" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="Y14" s="48" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="AA14" s="48" t="s">
         <v>1140</v>
@@ -18335,10 +18606,10 @@
         <v>1926</v>
       </c>
       <c r="AD14" s="48" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="AE14" s="48" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -18347,16 +18618,16 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
       <c r="C16" s="24" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
       <c r="D17" s="24" t="s">
+        <v>2496</v>
+      </c>
+      <c r="O17" s="24" t="s">
         <v>2497</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -18365,16 +18636,16 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B19" s="46"/>
       <c r="C19" s="24" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" s="46"/>
       <c r="D20" s="24" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -18383,13 +18654,13 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="24" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
       <c r="D23" s="24" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -18400,787 +18671,793 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="46"/>
       <c r="C27" s="24" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="46"/>
       <c r="Z28" s="24" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="46"/>
       <c r="C29" s="24" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="46"/>
       <c r="C30" s="24" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
         <v>2510</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
         <v>2511</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
         <v>2512</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
         <v>2513</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
         <v>2514</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
         <v>2515</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
         <v>2516</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="24" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="24" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="N43" s="24" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="24" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="24" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+      <c r="N45" s="24" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="24" t="s">
         <v>2520</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="24" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
         <v>2521</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="24" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
+        <v>2527</v>
+      </c>
+      <c r="O51" s="24" t="s">
         <v>2528</v>
-      </c>
-      <c r="O51" s="24" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C56" s="24" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C58" s="24" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L58" s="24" t="s">
         <v>2533</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C59" s="24" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L59" s="24" t="s">
         <v>2535</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C60" s="24" t="s">
+        <v>2536</v>
+      </c>
+      <c r="M60" s="24" t="s">
         <v>2537</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" s="24" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="66" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B66" s="24" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="67" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C67" s="24" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="68" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C68" s="24" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="69" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C69" s="24" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="71" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="AG71" s="48"/>
       <c r="AH71" s="48" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AI71" s="48" t="s">
         <v>2563</v>
       </c>
-      <c r="AI71" s="48" t="s">
+      <c r="AJ71" s="48" t="s">
         <v>2564</v>
       </c>
-      <c r="AJ71" s="48" t="s">
-        <v>2565</v>
-      </c>
       <c r="AK71" s="48" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BK71" s="48"/>
       <c r="BL71" s="48" t="s">
+        <v>2562</v>
+      </c>
+      <c r="BM71" s="48" t="s">
         <v>2563</v>
       </c>
-      <c r="BM71" s="48" t="s">
-        <v>2564</v>
-      </c>
-      <c r="BN71" s="50" t="s">
+      <c r="BN71" s="51" t="s">
+        <v>2583</v>
+      </c>
+      <c r="BO71" s="51"/>
+      <c r="BP71" s="51" t="s">
         <v>2584</v>
       </c>
-      <c r="BO71" s="50"/>
-      <c r="BP71" s="50" t="s">
-        <v>2585</v>
-      </c>
-      <c r="BQ71" s="50"/>
+      <c r="BQ71" s="51"/>
     </row>
     <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C72" s="24" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="AG72" s="48" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AH72" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AI72" s="48" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AJ72" s="48" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AK72" s="48" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="AM72" s="22" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BK72" s="48" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BL72" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BM72" s="48" t="s">
-        <v>2575</v>
-      </c>
-      <c r="BN72" s="51" t="s">
-        <v>2565</v>
-      </c>
-      <c r="BO72" s="51"/>
-      <c r="BP72" s="51" t="s">
-        <v>2578</v>
-      </c>
-      <c r="BQ72" s="51"/>
+        <v>2574</v>
+      </c>
+      <c r="BN72" s="50" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BO72" s="50"/>
+      <c r="BP72" s="50" t="s">
+        <v>2577</v>
+      </c>
+      <c r="BQ72" s="50"/>
     </row>
     <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C73" s="24" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="AG73" s="48" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="AH73" s="48" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="AI73" s="48" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="AJ73" s="48" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="AK73" s="48" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BK73" s="48" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BL73" s="48" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BM73" s="48" t="s">
-        <v>2576</v>
-      </c>
-      <c r="BN73" s="51" t="s">
-        <v>2565</v>
-      </c>
-      <c r="BO73" s="51"/>
-      <c r="BP73" s="51" t="s">
-        <v>2579</v>
-      </c>
-      <c r="BQ73" s="51"/>
+        <v>2575</v>
+      </c>
+      <c r="BN73" s="50" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BO73" s="50"/>
+      <c r="BP73" s="50" t="s">
+        <v>2578</v>
+      </c>
+      <c r="BQ73" s="50"/>
     </row>
     <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AG74" s="48" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="AH74" s="48" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AI74" s="48" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="AJ74" s="48" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AK74" s="48" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BK74" s="48" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BL74" s="48" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BM74" s="48" t="s">
-        <v>2577</v>
-      </c>
-      <c r="BN74" s="51" t="s">
-        <v>2565</v>
-      </c>
-      <c r="BO74" s="51"/>
-      <c r="BP74" s="51" t="s">
-        <v>2580</v>
-      </c>
-      <c r="BQ74" s="51"/>
+        <v>2576</v>
+      </c>
+      <c r="BN74" s="50" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BO74" s="50"/>
+      <c r="BP74" s="50" t="s">
+        <v>2579</v>
+      </c>
+      <c r="BQ74" s="50"/>
     </row>
     <row r="75" spans="1:69" x14ac:dyDescent="0.25">
       <c r="BK75" s="48" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BL75" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BM75" s="48" t="s">
-        <v>2575</v>
-      </c>
-      <c r="BN75" s="51" t="s">
-        <v>2572</v>
-      </c>
-      <c r="BO75" s="51"/>
-      <c r="BP75" s="51" t="s">
-        <v>2581</v>
-      </c>
-      <c r="BQ75" s="51"/>
+        <v>2574</v>
+      </c>
+      <c r="BN75" s="50" t="s">
+        <v>2571</v>
+      </c>
+      <c r="BO75" s="50"/>
+      <c r="BP75" s="50" t="s">
+        <v>2580</v>
+      </c>
+      <c r="BQ75" s="50"/>
     </row>
     <row r="76" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A76" s="46" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BK76" s="48" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BL76" s="48" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BM76" s="48" t="s">
-        <v>2576</v>
-      </c>
-      <c r="BN76" s="51" t="s">
-        <v>2572</v>
-      </c>
-      <c r="BO76" s="51"/>
-      <c r="BP76" s="51" t="s">
-        <v>2582</v>
-      </c>
-      <c r="BQ76" s="51"/>
+        <v>2575</v>
+      </c>
+      <c r="BN76" s="50" t="s">
+        <v>2571</v>
+      </c>
+      <c r="BO76" s="50"/>
+      <c r="BP76" s="50" t="s">
+        <v>2581</v>
+      </c>
+      <c r="BQ76" s="50"/>
     </row>
     <row r="77" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BK77" s="48" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BL77" s="48" t="s">
+        <v>2573</v>
+      </c>
+      <c r="BM77" s="48" t="s">
+        <v>2576</v>
+      </c>
+      <c r="BN77" s="50" t="s">
         <v>2571</v>
       </c>
-      <c r="BL77" s="48" t="s">
-        <v>2574</v>
-      </c>
-      <c r="BM77" s="48" t="s">
-        <v>2577</v>
-      </c>
-      <c r="BN77" s="51" t="s">
-        <v>2572</v>
-      </c>
-      <c r="BO77" s="51"/>
-      <c r="BP77" s="51" t="s">
-        <v>2583</v>
-      </c>
-      <c r="BQ77" s="51"/>
+      <c r="BO77" s="50"/>
+      <c r="BP77" s="50" t="s">
+        <v>2582</v>
+      </c>
+      <c r="BQ77" s="50"/>
     </row>
     <row r="79" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B79" s="24" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="80" spans="1:69" x14ac:dyDescent="0.25">
       <c r="K80" s="24" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="W80" s="24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K81" s="24" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K82" s="24" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="W82" s="24" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K83" s="24" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C86" s="24" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="R90" s="22"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B92" s="24" t="s">
+        <v>2590</v>
+      </c>
+      <c r="V92" s="24" t="s">
         <v>2591</v>
-      </c>
-      <c r="V92" s="24" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C95" s="24" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C96" s="24" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C97" s="24" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C98" s="24" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C99" s="24" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B101" s="24" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AM103" s="24" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="46" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B105" s="24" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B108" s="24" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B110" s="24" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C111" s="24" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C113" s="24" t="s">
+        <v>2614</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L113" s="24" t="s">
         <v>2615</v>
-      </c>
-      <c r="K113" s="24" t="s">
-        <v>2568</v>
-      </c>
-      <c r="L113" s="24" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L114" s="24" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L115" s="24" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D117" s="24" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="24" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C120" s="24" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C123" s="24" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="46" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B170" s="24" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" s="24" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C173" s="24" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C175" s="24" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D176" s="24" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D177" s="24" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D178" s="24" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D179" s="24" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D180" s="24" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D181" s="24" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="24" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C184" s="24" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C185" s="24" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C186" s="24" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C187" s="24" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C188" s="24" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C189" s="24" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C190" s="24" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D191" s="24" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C192" s="24" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="193" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D193" s="24" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="194" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C194" s="24" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="195" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D195" s="24" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="196" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C196" s="24" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="197" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D197" s="24" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="198" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D198" s="24" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="199" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C199" s="24" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="200" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D200" s="24" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="202" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C202" s="24" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="203" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D203" s="24" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="AB203" s="24" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="204" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D204" s="24" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="AB204" s="24" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="205" spans="3:28" x14ac:dyDescent="0.25">
       <c r="AB205" s="24" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="206" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D206" s="24" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="AB206" s="24" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="207" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E207" s="24" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="208" spans="3:28" x14ac:dyDescent="0.25">
       <c r="AB208" s="28" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="209" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB209" s="24" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="210" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB210" s="24" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
   </sheetData>
@@ -19190,13 +19467,13 @@
     <mergeCell ref="BP77:BQ77"/>
     <mergeCell ref="BP76:BQ76"/>
     <mergeCell ref="BP75:BQ75"/>
+    <mergeCell ref="BN75:BO75"/>
     <mergeCell ref="BP74:BQ74"/>
     <mergeCell ref="BN71:BO71"/>
     <mergeCell ref="BP71:BQ71"/>
     <mergeCell ref="BN72:BO72"/>
     <mergeCell ref="BN73:BO73"/>
     <mergeCell ref="BN74:BO74"/>
-    <mergeCell ref="BN75:BO75"/>
     <mergeCell ref="BP73:BQ73"/>
     <mergeCell ref="BP72:BQ72"/>
   </mergeCells>
@@ -19206,12 +19483,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96CB90-53F2-4C46-BC8C-D3BBADD866EB}">
+  <dimension ref="A1:AI49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK51" sqref="AK51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2676</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2697</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AG11" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W30" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X34" s="23" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D211E-0E64-4584-A73A-0AD66FD9DF98}">
   <dimension ref="A1:BH278"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25911,7 +26349,7 @@
   <dimension ref="A1:BC144"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AT40" sqref="AT40"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26861,8 +27299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D096D51-ADEA-4209-B8DC-5D72E85FA078}">
   <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32182,7 +32620,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AE50" sqref="AE50"/>
+      <selection activeCell="AA59" sqref="AA59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF8D5C-D383-4A5F-8912-4DEF83D05C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323785D-09E1-4AEE-ACD2-901CC78B430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="30" windowWidth="19155" windowHeight="19170" firstSheet="12" activeTab="16" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="19200" yWindow="30" windowWidth="19095" windowHeight="19170" firstSheet="12" activeTab="17" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="2698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="2752">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9507,10 +9507,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"[기-힣]" : 한글자씩 뽑아냄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"[가-힣]"+ : 한 개 이상으로 이루어진 단어별로 뽑아내짐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9655,6 +9651,211 @@
   </si>
   <si>
     <t># time.sleep(숫자) : 입력한 숫자만큼 쉼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링은 항상 같은 것을 가져와야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링 하기 전, 가져오고자 하는 정보들의 태그와 구조가 같은지 확인해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지를 1,2,3,4 할 수 도있지만 1,11,21,31,41 이런식일 수 도 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML변수.find('태크명',class_='속성값')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그가 있는 html에 .text를 붙이면 태그는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h2 class="title"&gt;로또6/45&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>html.find('h2',class_='title')</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>html.find('h2',class_='title').text</t>
+  </si>
+  <si>
+    <t>로또6/45</t>
+  </si>
+  <si>
+    <t>빈도 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장이나 대화 속에서 각각의 문자의 빈출 경향의 정도를 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워드 클라우드 그릴 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈도분석 알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic</t>
+  </si>
+  <si>
+    <t>words=['한국','한국','일본','중국']</t>
+  </si>
+  <si>
+    <t>dic={}</t>
+  </si>
+  <si>
+    <t>for i in words:</t>
+  </si>
+  <si>
+    <t>    if i in dic:</t>
+  </si>
+  <si>
+    <t>        dic[i]+=1</t>
+  </si>
+  <si>
+    <t>    else:</t>
+  </si>
+  <si>
+    <t>        dic[i]=1</t>
+  </si>
+  <si>
+    <t>{'한국': 2, '일본': 1, '중국': 1}</t>
+  </si>
+  <si>
+    <t>예시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from wordcloud import WordCloud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from PIL import Image # 이미지 데이터 불러오고 처리하는 라이브러리</t>
+  </si>
+  <si>
+    <t>from tqdm import tqdm # for문이 언제끝나는지 알려주는 라이브러리</t>
+  </si>
+  <si>
+    <t>"[가-힣]" : 한글자씩 뽑아냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수=WordCloud(font_path="…",background_color="…",mask='…')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수.generate_from_frequencies(dic)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.imshow(변수) # 이미지 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 반응을 이용해서 데이터 크롤링하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 요청방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>selenium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 반응</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 반응 보기 : Ctrl+Shift+i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태는 Python 딕셔너리와 유사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript Object Notation 축약어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript에서 데이터를 저장하거나 전송할 때 많이 사용되는 경량의 Data 교환 형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.loads(str(json))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># python으로 딕셔너리 형태로 가져옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests 등 가져오지 못할 경우에 네트워크 반응을 이용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 우클릭 검사랑 같음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 탭에서 인터넷 창들을 클릭해본 뒤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생하는 반응을 찾아서 우클릭 하고 Open in new tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.drop([행인덱스])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.drop(['열이름'],axis=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 원하는 행이나 열 삭제, 기본값 axis=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_csv("파일이름.csv", index_col=0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 데이터프레임 앞에 index열이 사라짐, 기본값은 index_col=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(['행이름'])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 데이터프레임 자체에 기본 인덱스가 있어야 행 인덱스로 삭제 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10581,13 +10782,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>47482</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>114185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10625,13 +10826,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>142724</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>9411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10669,13 +10870,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>180700</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>161780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10713,13 +10914,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>56709</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>180910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10757,13 +10958,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>142109</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>66507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10801,13 +11002,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>28375</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>47504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10845,13 +11046,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>18843</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>95131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10889,13 +11090,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>56894</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>28462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10933,13 +11134,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>47452</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>95061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10977,13 +11178,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>9273</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>114106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11021,13 +11222,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>113793</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>367</xdr:row>
       <xdr:rowOff>180907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11065,13 +11266,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>75967</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>133167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11113,15 +11314,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>142292</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>94868</xdr:rowOff>
+      <xdr:colOff>170867</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11144,7 +11345,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="11944350"/>
+          <a:off x="2200275" y="11877675"/>
           <a:ext cx="4666667" cy="3057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11388,13 +11589,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>104350</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>56762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11432,13 +11633,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>37714</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11464,6 +11665,50 @@
         <a:xfrm>
           <a:off x="4371975" y="6581775"/>
           <a:ext cx="3085714" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>151625</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1241E3A0-5DBB-2848-201F-28C3D14B4C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="15278100"/>
+          <a:ext cx="6200000" cy="1133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11774,8 +12019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98375F85-5B20-47A5-99CD-232AA4BC3C85}">
   <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE49" sqref="AE49:AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12536,8 +12781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4E9D5F-C2DC-4FBC-B9CF-E10CC6B732C2}">
   <dimension ref="A1:AX130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="W67" sqref="W67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14268,8 +14513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AP26" sqref="AP26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15086,10 +15331,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
-  <dimension ref="A1:BD481"/>
+  <dimension ref="A1:BD482"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="AU330" sqref="AU330"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="AU447" sqref="AU447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16467,129 +16712,118 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="283" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B283" s="24" t="s">
+    <row r="282" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C282" s="24" t="s">
+        <v>2748</v>
+      </c>
+      <c r="R282" s="24" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="284" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B284" s="24" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="284" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C284" s="24" t="s">
+    <row r="285" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C285" s="24" t="s">
         <v>2203</v>
       </c>
-      <c r="AK284" s="24" t="s">
+      <c r="AK285" s="24" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="286" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="U286" s="24" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AK286" s="24" t="s">
         <v>2695</v>
-      </c>
-    </row>
-    <row r="285" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="U285" s="24" t="s">
-        <v>2227</v>
-      </c>
-      <c r="AK285" s="24" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="286" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D286" s="23" t="s">
-        <v>2204</v>
-      </c>
-      <c r="M286" s="24" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="287" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D287" s="23" t="s">
+        <v>2204</v>
+      </c>
+      <c r="M287" s="24" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="288" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D288" s="23" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="290" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C290" s="24" t="s">
+    <row r="291" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C291" s="24" t="s">
         <v>2207</v>
-      </c>
-    </row>
-    <row r="292" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D292" s="23" t="s">
-        <v>2209</v>
-      </c>
-      <c r="R292" s="24" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="293" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D293" s="23" t="s">
+        <v>2209</v>
+      </c>
+      <c r="R293" s="24" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="294" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D294" s="23" t="s">
         <v>2208</v>
       </c>
-      <c r="J293" s="24" t="s">
+      <c r="J294" s="24" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="297" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C297" s="24" t="s">
+    <row r="298" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C298" s="24" t="s">
         <v>2220</v>
-      </c>
-    </row>
-    <row r="299" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D299" s="23" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="300" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D300" s="23" t="s">
-        <v>2212</v>
-      </c>
-      <c r="R300" s="24" t="s">
-        <v>2206</v>
-      </c>
-      <c r="AF300" s="24" t="s">
-        <v>2226</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="301" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D301" s="23" t="s">
-        <v>2241</v>
+        <v>2212</v>
+      </c>
+      <c r="R301" s="24" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AF301" s="24" t="s">
+        <v>2226</v>
       </c>
     </row>
     <row r="302" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D302" s="23" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="303" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D303" s="23" t="s">
         <v>2213</v>
       </c>
-      <c r="G302" s="24" t="s">
+      <c r="G303" s="24" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="304" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C304" s="24" t="s">
+    <row r="305" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C305" s="24" t="s">
         <v>2221</v>
-      </c>
-    </row>
-    <row r="306" spans="3:56" x14ac:dyDescent="0.25">
-      <c r="D306" s="23" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="307" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D307" s="23" t="s">
-        <v>2211</v>
-      </c>
-      <c r="L307" s="23"/>
-      <c r="AT307" s="30"/>
-      <c r="AU307" s="30"/>
-      <c r="AV307" s="30"/>
-      <c r="AW307" s="30"/>
-      <c r="AX307" s="30"/>
-      <c r="AY307" s="30"/>
-      <c r="AZ307" s="30"/>
-      <c r="BA307" s="30"/>
-      <c r="BB307" s="30"/>
-      <c r="BC307" s="30"/>
-      <c r="BD307" s="30"/>
+        <v>2209</v>
+      </c>
     </row>
     <row r="308" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D308" s="23" t="s">
-        <v>2216</v>
-      </c>
-      <c r="S308" s="24" t="s">
-        <v>2206</v>
-      </c>
+        <v>2211</v>
+      </c>
+      <c r="L308" s="23"/>
       <c r="AT308" s="30"/>
       <c r="AU308" s="30"/>
       <c r="AV308" s="30"/>
@@ -16604,10 +16838,10 @@
     </row>
     <row r="309" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D309" s="23" t="s">
-        <v>2217</v>
-      </c>
-      <c r="J309" s="24" t="s">
-        <v>2219</v>
+        <v>2216</v>
+      </c>
+      <c r="S309" s="24" t="s">
+        <v>2206</v>
       </c>
       <c r="AT309" s="30"/>
       <c r="AU309" s="30"/>
@@ -16623,10 +16857,10 @@
     </row>
     <row r="310" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D310" s="23" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J310" s="24" t="s">
-        <v>2242</v>
+        <v>2219</v>
       </c>
       <c r="AT310" s="30"/>
       <c r="AU310" s="30"/>
@@ -16641,6 +16875,12 @@
       <c r="BD310" s="30"/>
     </row>
     <row r="311" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="D311" s="23" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J311" s="24" t="s">
+        <v>2242</v>
+      </c>
       <c r="AT311" s="30"/>
       <c r="AU311" s="30"/>
       <c r="AV311" s="30"/>
@@ -16654,9 +16894,6 @@
       <c r="BD311" s="30"/>
     </row>
     <row r="312" spans="3:56" x14ac:dyDescent="0.25">
-      <c r="C312" s="24" t="s">
-        <v>2222</v>
-      </c>
       <c r="AT312" s="30"/>
       <c r="AU312" s="30"/>
       <c r="AV312" s="30"/>
@@ -16670,6 +16907,9 @@
       <c r="BD312" s="30"/>
     </row>
     <row r="313" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C313" s="24" t="s">
+        <v>2222</v>
+      </c>
       <c r="AT313" s="30"/>
       <c r="AU313" s="30"/>
       <c r="AV313" s="30"/>
@@ -16683,9 +16923,6 @@
       <c r="BD313" s="30"/>
     </row>
     <row r="314" spans="3:56" x14ac:dyDescent="0.25">
-      <c r="D314" s="22" t="s">
-        <v>2228</v>
-      </c>
       <c r="AT314" s="30"/>
       <c r="AU314" s="30"/>
       <c r="AV314" s="30"/>
@@ -16699,591 +16936,626 @@
       <c r="BD314" s="30"/>
     </row>
     <row r="315" spans="3:56" x14ac:dyDescent="0.25">
-      <c r="D315" s="23" t="s">
+      <c r="D315" s="22" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AT315" s="30"/>
+      <c r="AU315" s="30"/>
+      <c r="AV315" s="30"/>
+      <c r="AW315" s="30"/>
+      <c r="AX315" s="30"/>
+      <c r="AY315" s="30"/>
+      <c r="AZ315" s="30"/>
+      <c r="BA315" s="30"/>
+      <c r="BB315" s="30"/>
+      <c r="BC315" s="30"/>
+      <c r="BD315" s="30"/>
+    </row>
+    <row r="316" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="D316" s="23" t="s">
         <v>2223</v>
       </c>
-      <c r="AB315" s="24" t="s">
+      <c r="AB316" s="24" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="322" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D322" s="23" t="s">
+    <row r="323" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D323" s="23" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="323" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D323" s="23" t="s">
+    <row r="324" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D324" s="23" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="324" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D324" s="23" t="s">
+    <row r="325" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D325" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AB324" s="24" t="s">
+      <c r="AB325" s="24" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="325" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D325" s="23" t="s">
+    <row r="326" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D326" s="23" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="326" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D326" s="23" t="s">
+    <row r="327" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D327" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="331" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D331" s="23" t="s">
+    <row r="332" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D332" s="23" t="s">
         <v>2228</v>
       </c>
     </row>
-    <row r="332" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D332" s="23" t="s">
+    <row r="333" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D333" s="23" t="s">
         <v>2225</v>
       </c>
-      <c r="AB332" s="24" t="s">
+      <c r="AB333" s="24" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="333" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="D333" s="23" t="s">
+    <row r="334" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D334" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="336" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C336" s="24" t="s">
+    <row r="337" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C337" s="24" t="s">
         <v>2230</v>
-      </c>
-    </row>
-    <row r="338" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="D338" s="23" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="339" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D339" s="23" t="s">
-        <v>2229</v>
-      </c>
-      <c r="AF339" s="24" t="s">
-        <v>2206</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="340" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D340" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AF340" s="24" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="341" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D341" s="23" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="343" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="D343" s="23" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="344" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D344" s="23" t="s">
-        <v>2231</v>
-      </c>
-      <c r="AH344" s="24" t="s">
-        <v>2206</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="345" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D345" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AH345" s="24" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="346" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="D346" s="23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="349" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C349" s="24" t="s">
+    <row r="350" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C350" s="24" t="s">
         <v>2232</v>
-      </c>
-    </row>
-    <row r="351" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="D351" s="23" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E351" s="1"/>
-      <c r="W351" s="24" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="352" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D352" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E352" s="1"/>
+      <c r="W352" s="24" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="353" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D353" s="23" t="s">
         <v>2223</v>
       </c>
-      <c r="E352" s="1"/>
-    </row>
-    <row r="356" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="D356" s="23" t="s">
-        <v>2233</v>
-      </c>
+      <c r="E353" s="1"/>
     </row>
     <row r="357" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D357" s="23" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="358" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D358" s="23" t="s">
         <v>2234</v>
       </c>
-      <c r="AE357" s="24" t="s">
+      <c r="AE358" s="24" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="363" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C363" s="24" t="s">
+    <row r="364" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C364" s="24" t="s">
         <v>2235</v>
-      </c>
-    </row>
-    <row r="365" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="D365" s="23" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="366" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D366" s="23" t="s">
-        <v>2236</v>
-      </c>
-      <c r="AG366" s="24" t="s">
-        <v>2206</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="367" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D367" s="23" t="s">
-        <v>2215</v>
-      </c>
-      <c r="J367" s="24" t="s">
-        <v>2238</v>
+        <v>2236</v>
+      </c>
+      <c r="AG367" s="24" t="s">
+        <v>2206</v>
       </c>
     </row>
     <row r="368" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D368" s="23" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J368" s="24" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="369" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D369" s="23" t="s">
         <v>2237</v>
       </c>
-      <c r="J368" s="24" t="s">
+      <c r="J369" s="24" t="s">
         <v>2239</v>
-      </c>
-    </row>
-    <row r="371" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D371" s="23" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="372" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D372" s="23" t="s">
-        <v>2244</v>
-      </c>
-      <c r="AB372" s="24" t="s">
-        <v>2206</v>
-      </c>
-      <c r="AC372" s="23" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="373" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D373" s="23" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AB373" s="24" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AC373" s="23" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="374" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D374" s="23" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="375" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B375" s="24" t="s">
+    <row r="376" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B376" s="24" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="377" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C377" s="24" t="s">
+    <row r="378" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C378" s="24" t="s">
         <v>2263</v>
-      </c>
-    </row>
-    <row r="378" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D378" s="24" t="s">
-        <v>2250</v>
-      </c>
-      <c r="X378" s="24" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="379" spans="2:29" x14ac:dyDescent="0.25">
       <c r="D379" s="24" t="s">
+        <v>2250</v>
+      </c>
+      <c r="X379" s="24" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="380" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D380" s="24" t="s">
         <v>2251</v>
       </c>
     </row>
-    <row r="381" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="D381" s="24" t="s">
+    <row r="382" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D382" s="24" t="s">
         <v>2263</v>
-      </c>
-    </row>
-    <row r="382" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E382" s="24" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="383" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E383" s="24" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="384" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E384" s="24" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="24" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="385" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E385" s="24" t="s">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="24" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="386" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E386" s="24" t="s">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E387" s="24" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="387" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E387" s="24" t="s">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="24" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="388" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E388" s="24" t="s">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="24" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="389" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E389" s="24" t="s">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="24" t="s">
         <v>2259</v>
       </c>
     </row>
-    <row r="390" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E390" s="24" t="s">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="24" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="391" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E391" s="24" t="s">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E392" s="24" t="s">
         <v>2261</v>
       </c>
     </row>
-    <row r="392" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E392" s="24" t="s">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="24" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="394" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E394" s="24" t="s">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="24" t="s">
         <v>2264</v>
       </c>
     </row>
-    <row r="396" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E396" s="24" t="s">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="24" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="398" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B398" s="24" t="s">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B399" s="24" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="400" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C400" s="24" t="s">
+    <row r="401" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C401" s="24" t="s">
         <v>2267</v>
       </c>
-      <c r="AJ400" s="24" t="s">
+      <c r="AJ401" s="24" t="s">
         <v>2248</v>
-      </c>
-    </row>
-    <row r="401" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D401" s="24" t="s">
-        <v>2268</v>
-      </c>
-      <c r="AK401" s="24" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="402" spans="3:47" x14ac:dyDescent="0.25">
       <c r="D402" s="24" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AK402" s="24" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="403" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D403" s="24" t="s">
         <v>2269</v>
       </c>
-      <c r="AJ402" s="24" t="s">
+      <c r="AJ403" s="24" t="s">
         <v>2249</v>
       </c>
     </row>
-    <row r="403" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="AK403" s="24" t="s">
+    <row r="404" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="AK404" s="24" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="404" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C404" s="24" t="s">
+    <row r="405" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C405" s="24" t="s">
         <v>2270</v>
-      </c>
-    </row>
-    <row r="405" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D405" s="24" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="406" spans="3:47" x14ac:dyDescent="0.25">
       <c r="D406" s="24" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="407" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D407" s="24" t="s">
         <v>2272</v>
       </c>
-      <c r="AB406" s="24" t="s">
+      <c r="AB407" s="24" t="s">
         <v>2600</v>
       </c>
-      <c r="AU406" s="24" t="s">
+      <c r="AU407" s="24" t="s">
         <v>2602</v>
-      </c>
-    </row>
-    <row r="407" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="E407" s="24" t="s">
-        <v>2273</v>
-      </c>
-      <c r="AC407" s="22" t="s">
-        <v>2599</v>
-      </c>
-      <c r="AU407" s="24" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="408" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E408" s="24" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AC408" s="22" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AU408" s="24" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="409" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E409" s="24" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="409" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="AL409" s="24" t="s">
+    <row r="410" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="AL410" s="24" t="s">
         <v>2601</v>
-      </c>
-    </row>
-    <row r="410" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="E410" s="24" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="411" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E411" s="24" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="412" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E412" s="24" t="s">
         <v>2276</v>
-      </c>
-    </row>
-    <row r="413" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="D413" s="24" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="414" spans="3:47" x14ac:dyDescent="0.25">
       <c r="D414" s="24" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="415" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D415" s="24" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="416" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C416" s="24" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="418" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D418" s="24" t="s">
-        <v>2279</v>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C417" s="24" t="s">
+        <v>2693</v>
       </c>
     </row>
     <row r="419" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D419" s="24" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="420" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D420" s="24" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="24" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="422" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C422" s="24" t="s">
+    <row r="423" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C423" s="24" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="423" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D423" s="24" t="s">
+    <row r="424" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D424" s="24" t="s">
         <v>2283</v>
-      </c>
-    </row>
-    <row r="425" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D425" s="24" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="426" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D426" s="24" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="427" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D427" s="24" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="428" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D428" s="24" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D429" s="24" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="430" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C430" s="24" t="s">
+    <row r="431" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C431" s="24" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="432" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D432" s="24" t="s">
+    <row r="433" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D433" s="24" t="s">
         <v>2289</v>
       </c>
     </row>
-    <row r="434" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C434" s="24" t="s">
+    <row r="435" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C435" s="24" t="s">
         <v>2290</v>
       </c>
-      <c r="O434" s="24" t="s">
+      <c r="O435" s="24" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="436" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D436" s="24" t="s">
+    <row r="437" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D437" s="24" t="s">
         <v>2291</v>
       </c>
-      <c r="P436" s="24" t="s">
+      <c r="P437" s="24" t="s">
         <v>2495</v>
       </c>
     </row>
-    <row r="438" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C438" s="24" t="s">
+    <row r="439" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C439" s="24" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="440" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D440" s="24" t="s">
+    <row r="441" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D441" s="24" t="s">
         <v>2293</v>
       </c>
-      <c r="L440" s="24" t="s">
+      <c r="L441" s="24" t="s">
         <v>2294</v>
       </c>
     </row>
-    <row r="442" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C442" s="24" t="s">
+    <row r="443" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C443" s="24" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="444" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D444" s="24" t="s">
+    <row r="445" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D445" s="24" t="s">
         <v>2296</v>
       </c>
-      <c r="L444" s="24" t="s">
+      <c r="L445" s="24" t="s">
         <v>2297</v>
       </c>
     </row>
-    <row r="446" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C446" s="24" t="s">
+    <row r="447" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C447" s="24" t="s">
         <v>2298</v>
       </c>
     </row>
-    <row r="448" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D448" s="24" t="s">
+    <row r="449" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D449" s="24" t="s">
         <v>2299</v>
       </c>
     </row>
-    <row r="449" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D449" s="24" t="s">
+    <row r="450" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D450" s="24" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="450" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D450" s="24" t="s">
+    <row r="451" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D451" s="24" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="451" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D451" s="24" t="s">
+    <row r="452" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D452" s="24" t="s">
         <v>2320</v>
       </c>
     </row>
-    <row r="452" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D452" s="24" t="s">
+    <row r="453" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D453" s="24" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="453" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D453" s="24" t="s">
+    <row r="454" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D454" s="24" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="455" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C455" s="24" t="s">
+    <row r="456" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C456" s="24" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="457" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D457" s="24" t="s">
+    <row r="457" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="U457" s="24" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AI457" s="24" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="458" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D458" s="24" t="s">
         <v>2305</v>
       </c>
-    </row>
-    <row r="458" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="24" t="s">
+      <c r="U458" s="24" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="459" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D459" s="24" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C460" s="24" t="s">
+      <c r="U459" s="24" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="460" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="U460" s="24" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="461" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C461" s="24" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="462" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D462" s="24" t="s">
+    <row r="463" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="D463" s="24" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="464" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C464" s="24" t="s">
+    <row r="465" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C465" s="24" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="466" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D466" s="24" t="s">
+    <row r="467" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="24" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="468" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C468" s="24" t="s">
+    <row r="469" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C469" s="24" t="s">
         <v>2311</v>
-      </c>
-    </row>
-    <row r="470" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D470" s="24" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="471" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D471" s="24" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="472" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D472" s="24" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="473" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D473" s="24" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D474" s="24" t="s">
         <v>2315</v>
       </c>
     </row>
-    <row r="475" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C475" s="24" t="s">
+    <row r="476" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C476" s="24" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="477" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="24" t="s">
+    <row r="478" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D478" s="24" t="s">
         <v>2317</v>
       </c>
     </row>
-    <row r="479" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C479" s="24" t="s">
+    <row r="480" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C480" s="24" t="s">
         <v>2318</v>
       </c>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="24" t="s">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D482" s="24" t="s">
         <v>2319</v>
       </c>
     </row>
@@ -17299,8 +17571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78969601-CFDF-4FEB-ADE1-B8CB4AE1E69F}">
   <dimension ref="A1:AJ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="AB89" sqref="AB89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17671,8 +17943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07853553-304D-4C3C-AC6C-4A6E8227C9AD}">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG42" sqref="AG42"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18324,8 +18596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A83CB-0B2E-48F4-BF71-630048669345}">
   <dimension ref="A1:BQ210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN11:AN12"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AH56" sqref="AH56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18751,7 +19023,7 @@
         <v>2517</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -18764,7 +19036,7 @@
         <v>2519</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -19416,7 +19688,7 @@
         <v>2653</v>
       </c>
       <c r="AB203" s="24" t="s">
-        <v>2660</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="204" spans="3:28" x14ac:dyDescent="0.25">
@@ -19424,12 +19696,12 @@
         <v>2654</v>
       </c>
       <c r="AB204" s="24" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="205" spans="3:28" x14ac:dyDescent="0.25">
       <c r="AB205" s="24" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="206" spans="3:28" x14ac:dyDescent="0.25">
@@ -19437,7 +19709,7 @@
         <v>2655</v>
       </c>
       <c r="AB206" s="24" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="207" spans="3:28" x14ac:dyDescent="0.25">
@@ -19457,7 +19729,7 @@
     </row>
     <row r="210" spans="28:28" x14ac:dyDescent="0.25">
       <c r="AB210" s="24" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
   </sheetData>
@@ -19485,155 +19757,388 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96CB90-53F2-4C46-BC8C-D3BBADD866EB}">
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK51" sqref="AK51"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AS69" sqref="AS69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="44"/>
+    <col min="1" max="1" width="2.7109375" style="5"/>
+    <col min="2" max="47" width="2.7109375" style="24"/>
+    <col min="48" max="48" width="2.7109375" style="24" customWidth="1"/>
+    <col min="49" max="16384" width="2.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="29" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="AI4" s="24" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>2667</v>
       </c>
-      <c r="AI4" t="s">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="AG8" s="24" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>2675</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AH9" s="24" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2671</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AG10" s="24" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AG11" s="24" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
         <v>2672</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>2676</v>
       </c>
-      <c r="N9" t="s">
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="24" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="24" t="s">
+        <v>2678</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D19" s="24" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="24" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>2704</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>2704</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="24" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="24" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="24" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X35" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B50" s="24" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
         <v>2697</v>
       </c>
-      <c r="AH9" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2669</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AG11" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W28" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W29" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W30" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X34" s="23" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>2690</v>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B54" s="24" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C55" s="24" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="23" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="23" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B61" s="24" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C62" s="24" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Q66" s="24" t="s">
+        <v>2704</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C73" s="24" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C74" s="24" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C75" s="24" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C76" s="24" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="24" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C83" s="24" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C84" s="24" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C85" s="24" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B87" s="24" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AB87" s="24" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AB88" s="24" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C89" s="24" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B91" s="24" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C92" s="24" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C93" s="24" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C94" s="24" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>2740</v>
       </c>
     </row>
   </sheetData>
@@ -19648,8 +20153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D211E-0E64-4584-A73A-0AD66FD9DF98}">
   <dimension ref="A1:BH278"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25001,8 +25506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C87447-8E71-4FB3-8A75-C872D99EABE7}">
   <dimension ref="A1:AB112"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU115" sqref="AU115"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27299,8 +27804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D096D51-ADEA-4209-B8DC-5D72E85FA078}">
   <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="X110" sqref="X110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28146,8 +28651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B909F2F2-B15A-4754-BBDC-4706D36E999A}">
   <dimension ref="A1:BG163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29315,8 +29820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01ED32B-7F30-4C4E-B1F4-1EA9DB723F2E}">
   <dimension ref="A1:BA251"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="AA196" sqref="AA196"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323785D-09E1-4AEE-ACD2-901CC78B430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60826913-7796-4F2C-ACD7-D037E9E2863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="30" windowWidth="19095" windowHeight="19170" firstSheet="12" activeTab="17" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19095" windowHeight="19170" firstSheet="7" activeTab="12" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="데이터시각화 lib" sheetId="30" r:id="rId16"/>
     <sheet name="데이터분석" sheetId="31" r:id="rId17"/>
     <sheet name="크롤링" sheetId="32" r:id="rId18"/>
+    <sheet name="데이터분석 정리" sheetId="33" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="2752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="2806">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9858,12 +9859,228 @@
     <t># 데이터프레임 자체에 기본 인덱스가 있어야 행 인덱스로 삭제 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>데이터 분석 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬의 가장 대표적인 데이터분석 도구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 형태의 데이터를 다루는 다양한 함수를 제공하고 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 형태의 데이터를 데이터프레임이라고 하며, 각각의 독립적인 열을 시리즈라고 부름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임['열이름']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행, 열 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임[['열이름','열이름']] # 여러 열에 접근할 때는 리스트로 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.loc[행,열] # 이름으로 행과 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.iloc[행,열] # 순서로 행과 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.to_datetime() # 문자열로 된 날짜 데이터를 날짜데이터로 변환 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.mean(axis=0) # 행방향(세로방향) 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.mean(axis=1) # 열바향(가로방향) 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.set_index('설정할 인덱스 이름')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupby 함수를 통해 데이터프레임 내에 있는 데이터를 내가 원하는 대로 집단화 할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loc[1,2] : 이름이 0인행, 이름이 2인 열에 접근</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># loc이랑 iloc에도 조건 넣을 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 라이브 러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib.pyplot, seaborn, pandas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스터마이징 옵션이 많음. 그만큼 그리기 어려움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 그려주나 커스터마이징이 적음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시화함수를 통해 간단한 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 데이터프레임을 하나로 합침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>axis=1은 열방향, 0은 행방향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개의 데이터프레임에서 각각 기준열을 정하고, 그 기준열에 있는 데이터에 맞게 데이터프레임을 합쳐주는 역할을 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df1.merge(df2,lefr_on=df1의 기준열,right_on=df2의 기준열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 두 데이터프레임의 기준열의 이름이 같다면 left_on,right_on대신 on으로 대체해도 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 것과 비교를 해도 False가 나오기 때문에 if문을 사용해서 누락값인지 확인을 할 수가 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락값을 확인하려면 pd.isnull()함수로 값이 누락값인지 아닌지 확인할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from numpu import NaN,nan,NAN 에서 누락값을 제공하기 때문에 누락값을 생성할 수도 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.fillna()함수를 통해 누락값을 채울 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆으로 긴 데이터에서 같은 의미를 가진 여러 개의 열들을 하나의 열로 통합해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>melt와 반대로 행에 있는 값을 열로 올릴 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 열을 기준으로 값에 순위를 매길 때 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 method(average, min, max, first, dense 등) 원하는대로 순위 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 변수 사이에 선형관계를 가지는지 분석하는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1에서 1사이의 값을 가지며 -1또는 1에 가까울수록 높은 상관관계를 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5, 0.5이상이면 높은 상관관계를 가진다고 보고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.3, 0.3이면 어느정도 상관관계가 있다고 봄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scipy패키지의 stats함수를 사용하면 쉽게 상관계수를 구할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규표현식과 re라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규표현식은 어떤 문장에서 내가 원하는 패턴만 찾는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>re라이브러리를 활용하면 정규표현식 기능을 손쉽게 사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷에서 데이터 수집 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests라이브러리를 통해 페이지 요청가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs4 라이브러리의 BeautifulSoup클래스를 사용하여 Python을 통해 HTML을 다룰 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time 라이브러리를 사용해서 트래픽 문제를 안 일으키는 것이 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd.read_html 함수를 사용하면 인터넷에 있는 표 데이터를 한번에 데이터프레임으로 만들 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># -1행은 자동행, reshape(-1,1) : 자동행 1열로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임.to_numpy() → 데이터프레임을 행렬로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9952,6 +10169,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
@@ -10074,7 +10306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10220,6 +10452,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -11536,6 +11774,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>180190</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>18511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42519738-9FD7-9CEF-2EA2-F7F439140115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="14801850"/>
+          <a:ext cx="6276190" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>161138</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>94656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E544D7ED-B96B-E8F4-501C-383FD55904B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17573625" y="14439900"/>
+          <a:ext cx="6295238" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>75406</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>189876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D260E79E-4952-2E5E-A139-0F8E0F50F313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23945850" y="14487525"/>
+          <a:ext cx="6352381" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>167</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>203</xdr:col>
+      <xdr:colOff>123011</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>46956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A5A645-6F4C-9A4B-14AE-24D987AE9F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30346650" y="14363700"/>
+          <a:ext cx="6514286" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12211,238 +12625,238 @@
       </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49" t="s">
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49" t="s">
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49" t="s">
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49" t="s">
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49" t="s">
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49" t="s">
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="49"/>
-      <c r="AI48" s="49" t="s">
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="AJ48" s="49"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49" t="s">
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49" t="s">
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49" t="s">
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49" t="s">
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49" t="s">
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49" t="s">
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49" t="s">
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="49"/>
-      <c r="AI49" s="49" t="s">
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="AJ49" s="49"/>
-      <c r="AK49" s="49"/>
-      <c r="AL49" s="49"/>
-      <c r="AM49" s="49" t="s">
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49" t="s">
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49" t="s">
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49" t="s">
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49" t="s">
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49" t="s">
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49" t="s">
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="49"/>
-      <c r="AI50" s="49" t="s">
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="AJ50" s="49"/>
-      <c r="AK50" s="49"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="49" t="s">
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="51"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49" t="s">
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="49"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="49"/>
-      <c r="X51" s="49"/>
-      <c r="Y51" s="49"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="49"/>
-      <c r="AC51" s="49"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="49"/>
-      <c r="AF51" s="49"/>
-      <c r="AG51" s="49"/>
-      <c r="AH51" s="49"/>
-      <c r="AI51" s="49"/>
-      <c r="AJ51" s="49"/>
-      <c r="AK51" s="49"/>
-      <c r="AL51" s="49"/>
-      <c r="AM51" s="49"/>
-      <c r="AN51" s="49"/>
-      <c r="AO51" s="49"/>
-      <c r="AP51" s="49"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="51"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
@@ -12530,110 +12944,110 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="49" t="s">
+      <c r="H71" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
       <c r="G72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="49" t="s">
+      <c r="H72" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
       <c r="O72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P72" s="49" t="s">
+      <c r="P72" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
       <c r="O73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P73" s="49" t="s">
+      <c r="P73" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H74" s="49" t="s">
+      <c r="H74" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
       <c r="O74" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="P74" s="49" t="s">
+      <c r="P74" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="49"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
@@ -14513,8 +14927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15333,8 +15747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
   <dimension ref="A1:BD482"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="AU447" sqref="AU447"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="AE389" sqref="AE389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16074,6 +16488,11 @@
         <v>2073</v>
       </c>
     </row>
+    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X137" s="24" t="s">
+        <v>2804</v>
+      </c>
+    </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C141" s="23" t="s">
         <v>2076</v>
@@ -16594,6 +17013,9 @@
     <row r="257" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B257" s="24" t="s">
         <v>2171</v>
+      </c>
+      <c r="AI257" s="24" t="s">
+        <v>2805</v>
       </c>
     </row>
     <row r="258" spans="2:41" x14ac:dyDescent="0.25">
@@ -17260,11 +17682,17 @@
       <c r="AK404" s="24" t="s">
         <v>2522</v>
       </c>
+      <c r="AU404" s="24" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="405" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C405" s="24" t="s">
         <v>2270</v>
       </c>
+      <c r="AU405" s="24" t="s">
+        <v>2765</v>
+      </c>
     </row>
     <row r="406" spans="3:47" x14ac:dyDescent="0.25">
       <c r="D406" s="24" t="s">
@@ -17312,10 +17740,16 @@
       <c r="E412" s="24" t="s">
         <v>2276</v>
       </c>
+      <c r="AE412" s="24" t="s">
+        <v>2768</v>
+      </c>
     </row>
     <row r="414" spans="3:47" x14ac:dyDescent="0.25">
       <c r="D414" s="24" t="s">
         <v>2277</v>
+      </c>
+      <c r="AK414" s="24" t="s">
+        <v>2769</v>
       </c>
     </row>
     <row r="415" spans="3:47" x14ac:dyDescent="0.25">
@@ -17572,7 +18006,7 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18596,8 +19030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A83CB-0B2E-48F4-BF71-630048669345}">
   <dimension ref="A1:BQ210"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="AH56" sqref="AH56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18893,7 +19327,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
       <c r="D17" s="24" t="s">
         <v>2496</v>
@@ -18902,16 +19336,16 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B19" s="46"/>
       <c r="C19" s="24" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B20" s="46"/>
       <c r="D20" s="24" t="s">
         <v>2493</v>
@@ -18920,60 +19354,60 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B21" s="46"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="24" t="s">
         <v>2500</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="24" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
       <c r="D23" s="24" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AK23" s="24" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B25" s="46"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" s="46" t="s">
         <v>2502</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27" s="46"/>
       <c r="C27" s="24" t="s">
         <v>2503</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B28" s="46"/>
-      <c r="Z28" s="24" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B29" s="46"/>
       <c r="C29" s="24" t="s">
         <v>2505</v>
       </c>
-      <c r="AA29" s="24" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30" s="46"/>
       <c r="C30" s="24" t="s">
         <v>2504</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>2509</v>
       </c>
@@ -19158,14 +19592,14 @@
       <c r="BM71" s="48" t="s">
         <v>2563</v>
       </c>
-      <c r="BN71" s="51" t="s">
+      <c r="BN71" s="53" t="s">
         <v>2583</v>
       </c>
-      <c r="BO71" s="51"/>
-      <c r="BP71" s="51" t="s">
+      <c r="BO71" s="53"/>
+      <c r="BP71" s="53" t="s">
         <v>2584</v>
       </c>
-      <c r="BQ71" s="51"/>
+      <c r="BQ71" s="53"/>
     </row>
     <row r="72" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C72" s="24" t="s">
@@ -19198,14 +19632,14 @@
       <c r="BM72" s="48" t="s">
         <v>2574</v>
       </c>
-      <c r="BN72" s="50" t="s">
+      <c r="BN72" s="52" t="s">
         <v>2564</v>
       </c>
-      <c r="BO72" s="50"/>
-      <c r="BP72" s="50" t="s">
+      <c r="BO72" s="52"/>
+      <c r="BP72" s="52" t="s">
         <v>2577</v>
       </c>
-      <c r="BQ72" s="50"/>
+      <c r="BQ72" s="52"/>
     </row>
     <row r="73" spans="1:69" x14ac:dyDescent="0.25">
       <c r="C73" s="24" t="s">
@@ -19235,14 +19669,14 @@
       <c r="BM73" s="48" t="s">
         <v>2575</v>
       </c>
-      <c r="BN73" s="50" t="s">
+      <c r="BN73" s="52" t="s">
         <v>2564</v>
       </c>
-      <c r="BO73" s="50"/>
-      <c r="BP73" s="50" t="s">
+      <c r="BO73" s="52"/>
+      <c r="BP73" s="52" t="s">
         <v>2578</v>
       </c>
-      <c r="BQ73" s="50"/>
+      <c r="BQ73" s="52"/>
     </row>
     <row r="74" spans="1:69" x14ac:dyDescent="0.25">
       <c r="AG74" s="48" t="s">
@@ -19269,14 +19703,14 @@
       <c r="BM74" s="48" t="s">
         <v>2576</v>
       </c>
-      <c r="BN74" s="50" t="s">
+      <c r="BN74" s="52" t="s">
         <v>2564</v>
       </c>
-      <c r="BO74" s="50"/>
-      <c r="BP74" s="50" t="s">
+      <c r="BO74" s="52"/>
+      <c r="BP74" s="52" t="s">
         <v>2579</v>
       </c>
-      <c r="BQ74" s="50"/>
+      <c r="BQ74" s="52"/>
     </row>
     <row r="75" spans="1:69" x14ac:dyDescent="0.25">
       <c r="BK75" s="48" t="s">
@@ -19288,14 +19722,14 @@
       <c r="BM75" s="48" t="s">
         <v>2574</v>
       </c>
-      <c r="BN75" s="50" t="s">
+      <c r="BN75" s="52" t="s">
         <v>2571</v>
       </c>
-      <c r="BO75" s="50"/>
-      <c r="BP75" s="50" t="s">
+      <c r="BO75" s="52"/>
+      <c r="BP75" s="52" t="s">
         <v>2580</v>
       </c>
-      <c r="BQ75" s="50"/>
+      <c r="BQ75" s="52"/>
     </row>
     <row r="76" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A76" s="46" t="s">
@@ -19310,14 +19744,14 @@
       <c r="BM76" s="48" t="s">
         <v>2575</v>
       </c>
-      <c r="BN76" s="50" t="s">
+      <c r="BN76" s="52" t="s">
         <v>2571</v>
       </c>
-      <c r="BO76" s="50"/>
-      <c r="BP76" s="50" t="s">
+      <c r="BO76" s="52"/>
+      <c r="BP76" s="52" t="s">
         <v>2581</v>
       </c>
-      <c r="BQ76" s="50"/>
+      <c r="BQ76" s="52"/>
     </row>
     <row r="77" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B77" s="24" t="s">
@@ -19335,14 +19769,14 @@
       <c r="BM77" s="48" t="s">
         <v>2576</v>
       </c>
-      <c r="BN77" s="50" t="s">
+      <c r="BN77" s="52" t="s">
         <v>2571</v>
       </c>
-      <c r="BO77" s="50"/>
-      <c r="BP77" s="50" t="s">
+      <c r="BO77" s="52"/>
+      <c r="BP77" s="52" t="s">
         <v>2582</v>
       </c>
-      <c r="BQ77" s="50"/>
+      <c r="BQ77" s="52"/>
     </row>
     <row r="79" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B79" s="24" t="s">
@@ -19383,6 +19817,9 @@
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C86" s="24" t="s">
         <v>2557</v>
+      </c>
+      <c r="R86" s="24" t="s">
+        <v>2766</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -19759,8 +20196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96CB90-53F2-4C46-BC8C-D3BBADD866EB}">
   <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AS69" sqref="AS69"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20149,12 +20586,318 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066E131D-4B57-4529-A87B-337E8C15DA73}">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AN43" sqref="AN43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="5"/>
+    <col min="2" max="16384" width="2.7109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="50" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="24" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="24" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="24" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="24" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="24" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="24" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="24" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="24" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="24" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="24" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="24" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="24" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="24" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="24" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="24" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="24" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="24" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="24" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="24" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="24" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="24" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="24" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="24" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="24" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="24" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="24" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="24" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="24" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="24" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="24" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D211E-0E64-4584-A73A-0AD66FD9DF98}">
   <dimension ref="A1:BH278"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/공부메모.xlsx
+++ b/공부메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60826913-7796-4F2C-ACD7-D037E9E2863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC468C-5229-4330-8CA8-68783A9B7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19095" windowHeight="19170" firstSheet="7" activeTab="12" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
+    <workbookView xWindow="3510" yWindow="1830" windowWidth="19095" windowHeight="19170" firstSheet="14" activeTab="16" xr2:uid="{63C6EC86-86F2-44F3-B3EF-C495775E1FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="참고 및 용어정리" sheetId="15" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="2806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="2813">
   <si>
     <t>True</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10073,6 +10073,34 @@
   </si>
   <si>
     <t>데이터프레임.to_numpy() → 데이터프레임을 행렬로 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annot=True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 수치보는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링시 요청한 정보가 잘 오지 않을 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url=requests.get(url, headers=dic)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 신분을 알려주지 않거나 python으로 요청하면 안오는 경우가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic={'User-Agent': 'Mozilla/5.0 (Macintosh; Intel Mac OS X 12_5_1)'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 안적혀 있으면 User-Agent가 python 3.8.1 ~~~~~~~~~ 이런식으로 되어있어서 거절할수도 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14927,8 +14955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CA641-B8F6-4669-B0D7-7E945B33C29D}">
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15747,8 +15775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE327160-21E7-4CA1-958C-4EB8851236A7}">
   <dimension ref="A1:BD482"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="AE389" sqref="AE389"/>
+    <sheetView topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="AR350" sqref="AR350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19030,8 +19058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A83CB-0B2E-48F4-BF71-630048669345}">
   <dimension ref="A1:BQ210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AN34" sqref="AN34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19963,6 +19991,16 @@
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C123" s="24" t="s">
         <v>2622</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C125" s="24" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C126" s="24" t="s">
+        <v>2807</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -20194,10 +20232,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F96CB90-53F2-4C46-BC8C-D3BBADD866EB}">
-  <dimension ref="A1:AJ97"/>
+  <dimension ref="A1:AJ104"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20570,12 +20608,35 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C97" s="24" t="s">
         <v>2739</v>
       </c>
       <c r="L97" s="24" t="s">
         <v>2740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B101" s="24" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AC101" s="24" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>2812</v>
       </c>
     </row>
   </sheetData>
@@ -20591,7 +20652,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AN43" sqref="AN43"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20896,8 +20957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3D211E-0E64-4584-A73A-0AD66FD9DF98}">
   <dimension ref="A1:BH278"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26249,8 +26310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C87447-8E71-4FB3-8A75-C872D99EABE7}">
   <dimension ref="A1:AB112"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27597,7 +27658,7 @@
   <dimension ref="A1:BC144"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28547,7 +28608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D096D51-ADEA-4209-B8DC-5D72E85FA078}">
   <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="X110" sqref="X110"/>
     </sheetView>
   </sheetViews>
@@ -32179,7 +32240,7 @@
   <dimension ref="A1:CP266"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29:BE39"/>
+      <selection activeCell="AK58" sqref="AK58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33868,7 +33929,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AA59" sqref="AA59"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
